--- a/scripts/2021_12 P2H_Dec2021_AnfrageTanja/data2.xlsx
+++ b/scripts/2021_12 P2H_Dec2021_AnfrageTanja/data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lichtblickit-my.sharepoint.com/personal/ruud_wijtvliet_lichtblick_de/Documents/Work_in_RM/python/2020_01_lichtblyck/scripts/2021_12 P2H_Dec2021_AnfrageTanja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_ECD2C09371276CADB6D1C872E2DD123437BF31B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39C6AE3E-AE8F-4717-BE8D-E4A5905D99A7}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_ECD2C09371276CADB6D1C872E2DD123437BF31B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE89E660-FBE7-437D-A838-5414594CBF23}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="-120" windowWidth="27000" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="-120" windowWidth="27045" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_name" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -230,6 +230,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3139,10 +3142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,30 +3164,30 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -5019,6 +5022,36 @@
         <f>I37+E37</f>
         <v>6878645.6806111895</v>
       </c>
+    </row>
+    <row r="55" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="P55" s="5"/>
+    </row>
+    <row r="65" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="P65" s="5"/>
+    </row>
+    <row r="68" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="P68" s="5"/>
+    </row>
+    <row r="69" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="P69" s="5"/>
+    </row>
+    <row r="72" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="P72" s="5"/>
+    </row>
+    <row r="74" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="P74" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
